--- a/data/trans_orig/P1423-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>10666</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5632</v>
+        <v>5380</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18693</v>
+        <v>19083</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02251343584338651</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01188753682869616</v>
+        <v>0.01135520508046512</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0394561716538163</v>
+        <v>0.04027829562675073</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -765,19 +765,19 @@
         <v>15522</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9314</v>
+        <v>8817</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25808</v>
+        <v>23724</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05061422043338928</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03037087426825909</v>
+        <v>0.02875030049888438</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08415343263549178</v>
+        <v>0.07735629698496609</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -786,19 +786,19 @@
         <v>26189</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17588</v>
+        <v>17644</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37658</v>
+        <v>37370</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03355563468896079</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02253612168011658</v>
+        <v>0.02260769735482494</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04825077840521485</v>
+        <v>0.04788248904391287</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>463110</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>455083</v>
+        <v>454693</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>468144</v>
+        <v>468396</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9774865641566135</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9605438283461837</v>
+        <v>0.9597217043732492</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9881124631713039</v>
+        <v>0.9886447949195348</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>283</v>
@@ -836,19 +836,19 @@
         <v>291158</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>280872</v>
+        <v>282956</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>297366</v>
+        <v>297863</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9493857795666107</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9158465673645083</v>
+        <v>0.9226437030150342</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9696291257317409</v>
+        <v>0.9712496995011157</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>727</v>
@@ -857,19 +857,19 @@
         <v>754268</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>742799</v>
+        <v>743087</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>762869</v>
+        <v>762813</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9664443653110392</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9517492215947853</v>
+        <v>0.9521175109560871</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9774638783198837</v>
+        <v>0.977392302645175</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>8057</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3719</v>
+        <v>3609</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15620</v>
+        <v>15970</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0219575794823593</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01013445054441589</v>
+        <v>0.009834785549492941</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04256920613554689</v>
+        <v>0.04352298130752437</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -982,19 +982,19 @@
         <v>22095</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13890</v>
+        <v>14492</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32770</v>
+        <v>33658</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05941745677788263</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0373528705719513</v>
+        <v>0.03896993741029105</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08812368279435599</v>
+        <v>0.09051011663766045</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -1003,19 +1003,19 @@
         <v>30152</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19875</v>
+        <v>20386</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41937</v>
+        <v>42417</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04081252126158203</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0269014717815357</v>
+        <v>0.02759334476665827</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05676313441199003</v>
+        <v>0.0574128978359373</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>358877</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>351314</v>
+        <v>350964</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363215</v>
+        <v>363325</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9780424205176407</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9574307938644531</v>
+        <v>0.9564770186924755</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9898655494555841</v>
+        <v>0.990165214450507</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>342</v>
@@ -1053,19 +1053,19 @@
         <v>349770</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>339095</v>
+        <v>338207</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>357975</v>
+        <v>357373</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9405825432221174</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.911876317205644</v>
+        <v>0.9094898833623395</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9626471294280486</v>
+        <v>0.9610300625897089</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>684</v>
@@ -1074,19 +1074,19 @@
         <v>708647</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>696862</v>
+        <v>696382</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>718924</v>
+        <v>718413</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9591874787384179</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9432368655880099</v>
+        <v>0.9425871021640627</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9730985282184643</v>
+        <v>0.9724066552333418</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>19942</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11928</v>
+        <v>12747</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28903</v>
+        <v>30706</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03676689987643941</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02199243732557962</v>
+        <v>0.02350214705303787</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05328761109223711</v>
+        <v>0.05661293772830748</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1199,19 +1199,19 @@
         <v>17598</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10400</v>
+        <v>10575</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27922</v>
+        <v>28097</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1048839817980507</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06198439387326264</v>
+        <v>0.06303111115427859</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1664207273489655</v>
+        <v>0.167458438503805</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -1220,19 +1220,19 @@
         <v>37540</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26734</v>
+        <v>26531</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51277</v>
+        <v>51255</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0528599449521952</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03764476417162277</v>
+        <v>0.03735819457864047</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07220390506303781</v>
+        <v>0.07217268748833645</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>522447</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>513486</v>
+        <v>511683</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>530461</v>
+        <v>529642</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9632331001235606</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9467123889077632</v>
+        <v>0.9433870622716916</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9780075626744207</v>
+        <v>0.976497852946962</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>148</v>
@@ -1270,19 +1270,19 @@
         <v>150184</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>139860</v>
+        <v>139685</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>157382</v>
+        <v>157207</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8951160182019493</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8335792726510346</v>
+        <v>0.8325415614961951</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9380156061267374</v>
+        <v>0.9369688888457214</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>659</v>
@@ -1291,19 +1291,19 @@
         <v>672631</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>658894</v>
+        <v>658916</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>683437</v>
+        <v>683640</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9471400550478047</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9277960949369624</v>
+        <v>0.9278273125116638</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9623552358283773</v>
+        <v>0.9626418054213597</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>39074</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28847</v>
+        <v>28279</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52053</v>
+        <v>52239</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03155335051192566</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02329515451303456</v>
+        <v>0.02283633424957248</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04203470608700655</v>
+        <v>0.04218513731736168</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -1416,19 +1416,19 @@
         <v>57597</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45122</v>
+        <v>44767</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73575</v>
+        <v>73178</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0806358923873515</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06317120619542341</v>
+        <v>0.06267348153929854</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1030049982074042</v>
+        <v>0.1024486251391613</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>98</v>
@@ -1437,19 +1437,19 @@
         <v>96671</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79645</v>
+        <v>79016</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116785</v>
+        <v>116068</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04950817247755263</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0407887161132798</v>
+        <v>0.04046688914434211</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05980927195002208</v>
+        <v>0.05944207663497507</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1199260</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1186281</v>
+        <v>1186095</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1209487</v>
+        <v>1210055</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9684466494880744</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9579652939129948</v>
+        <v>0.9578148626826385</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9767048454869655</v>
+        <v>0.9771636657504276</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>637</v>
@@ -1487,19 +1487,19 @@
         <v>656688</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>640710</v>
+        <v>641107</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>669163</v>
+        <v>669518</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9193641076126485</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8969950017925958</v>
+        <v>0.8975513748608387</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9368287938045766</v>
+        <v>0.9373265184607015</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1820</v>
@@ -1508,19 +1508,19 @@
         <v>1855949</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1835835</v>
+        <v>1836552</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1872975</v>
+        <v>1873604</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9504918275224473</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9401907280499774</v>
+        <v>0.940557923365025</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9592112838867201</v>
+        <v>0.959533110855658</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>16391</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9505</v>
+        <v>9655</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26429</v>
+        <v>25811</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04675807785350729</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02711535389216616</v>
+        <v>0.0275433770696562</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07539223541090137</v>
+        <v>0.07363023576448677</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -1633,19 +1633,19 @@
         <v>52445</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39888</v>
+        <v>40816</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68791</v>
+        <v>67656</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09221016651139759</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07013228774125295</v>
+        <v>0.07176452547070354</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1209516467094931</v>
+        <v>0.1189552402023278</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -1654,19 +1654,19 @@
         <v>68836</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>54507</v>
+        <v>53568</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>86016</v>
+        <v>88127</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07487812478761081</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0592914658566147</v>
+        <v>0.05826952946187</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09356643476449439</v>
+        <v>0.0958625933508172</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>334164</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>324126</v>
+        <v>324744</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>341050</v>
+        <v>340900</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9532419221464927</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9246077645890987</v>
+        <v>0.9263697642355133</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9728846461078339</v>
+        <v>0.9724566229303439</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>488</v>
@@ -1704,19 +1704,19 @@
         <v>516307</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>499961</v>
+        <v>501096</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>528864</v>
+        <v>527936</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9077898334886024</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8790483532905072</v>
+        <v>0.8810447597976722</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9298677122587471</v>
+        <v>0.9282354745292964</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>812</v>
@@ -1725,19 +1725,19 @@
         <v>850471</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>833291</v>
+        <v>831180</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>864800</v>
+        <v>865739</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9251218752123892</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.906433565235506</v>
+        <v>0.904137406649183</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9407085341433855</v>
+        <v>0.9417304705381303</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>7244</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2880</v>
+        <v>2934</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14641</v>
+        <v>13964</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02429108047025954</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009658800615942605</v>
+        <v>0.009840195172510047</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04909831675924922</v>
+        <v>0.04682697794918627</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>87</v>
@@ -1850,19 +1850,19 @@
         <v>90792</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>74048</v>
+        <v>73947</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>111022</v>
+        <v>111949</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07270538074999797</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05929710334217973</v>
+        <v>0.05921637017996128</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08890616507411381</v>
+        <v>0.08964839116700071</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>94</v>
@@ -1871,19 +1871,19 @@
         <v>98035</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>80656</v>
+        <v>81243</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>118840</v>
+        <v>118878</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06337277525345598</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05213847373897036</v>
+        <v>0.05251776736198029</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07682186223811184</v>
+        <v>0.07684595519675948</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>290957</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>283560</v>
+        <v>284237</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>295321</v>
+        <v>295267</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9757089195297405</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.950901683240751</v>
+        <v>0.9531730220508137</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9903411993840578</v>
+        <v>0.9901598048274899</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1151</v>
@@ -1921,19 +1921,19 @@
         <v>1157968</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1137738</v>
+        <v>1136811</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1174712</v>
+        <v>1174813</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.927294619250002</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9110938349258864</v>
+        <v>0.9103516088329994</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9407028966578204</v>
+        <v>0.9407836298200395</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1450</v>
@@ -1942,19 +1942,19 @@
         <v>1448925</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1428120</v>
+        <v>1428082</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1466304</v>
+        <v>1465717</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.936627224746544</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9231781377618882</v>
+        <v>0.9231540448032405</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9478615262610296</v>
+        <v>0.9474822326380197</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>101374</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>84244</v>
+        <v>82603</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>122681</v>
+        <v>120274</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03099935913217238</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02576115624673763</v>
+        <v>0.02525927568869862</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03751492522794523</v>
+        <v>0.0367789899072764</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>247</v>
@@ -2067,19 +2067,19 @@
         <v>256049</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>225124</v>
+        <v>226289</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>287996</v>
+        <v>289752</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07579608474239123</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06664179883081063</v>
+        <v>0.06698644400595638</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08525308792585472</v>
+        <v>0.0857730497332892</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>351</v>
@@ -2088,19 +2088,19 @@
         <v>357422</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>321825</v>
+        <v>322203</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>393529</v>
+        <v>395390</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05376135478822739</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04840705238016055</v>
+        <v>0.04846393574637153</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05919223213987117</v>
+        <v>0.05947223593962916</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3168816</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3147509</v>
+        <v>3149916</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3185946</v>
+        <v>3187587</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9690006408678277</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9624850747720548</v>
+        <v>0.9632210100927235</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9742388437532624</v>
+        <v>0.9747407243113013</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3049</v>
@@ -2138,19 +2138,19 @@
         <v>3122075</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3090128</v>
+        <v>3088372</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3153000</v>
+        <v>3151835</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9242039152576088</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9147469120741454</v>
+        <v>0.9142269502667106</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9333582011691894</v>
+        <v>0.9330135559940435</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6152</v>
@@ -2159,19 +2159,19 @@
         <v>6290892</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6254785</v>
+        <v>6252924</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6326489</v>
+        <v>6326111</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9462386452117726</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9408077678601288</v>
+        <v>0.9405277640603712</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9515929476198393</v>
+        <v>0.9515360642536285</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>12133</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6717</v>
+        <v>6092</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21808</v>
+        <v>21028</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02775033820733677</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01536302903512342</v>
+        <v>0.01393318223583047</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04987896221118889</v>
+        <v>0.0480968246765035</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -2526,19 +2526,19 @@
         <v>15073</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8072</v>
+        <v>8406</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23965</v>
+        <v>25926</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04793414327337293</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02567028659074063</v>
+        <v>0.02673102362316255</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07621140408111012</v>
+        <v>0.08244743616363753</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -2547,19 +2547,19 @@
         <v>27206</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17786</v>
+        <v>17374</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41315</v>
+        <v>40096</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0361941038281287</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02366159357308363</v>
+        <v>0.02311346517180653</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05496498649719926</v>
+        <v>0.05334248248703119</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>425078</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>415403</v>
+        <v>416183</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>430494</v>
+        <v>431119</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9722496617926633</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9501210377888112</v>
+        <v>0.9519031753234964</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9846369709648766</v>
+        <v>0.9860668177641695</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>270</v>
@@ -2597,19 +2597,19 @@
         <v>299381</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>290489</v>
+        <v>288528</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>306382</v>
+        <v>306048</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.952065856726627</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.92378859591889</v>
+        <v>0.9175525638363623</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9743297134092592</v>
+        <v>0.9732689763768372</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>663</v>
@@ -2618,19 +2618,19 @@
         <v>724459</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>710350</v>
+        <v>711569</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>733879</v>
+        <v>734291</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9638058961718713</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9450350135028004</v>
+        <v>0.9466575175129686</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9763384064269162</v>
+        <v>0.9768865348281934</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>13232</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6588</v>
+        <v>7006</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22866</v>
+        <v>24182</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03159433161893261</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01573124002131092</v>
+        <v>0.01672949806954385</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0545996465061111</v>
+        <v>0.05774195772575801</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -2743,19 +2743,19 @@
         <v>19105</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11896</v>
+        <v>11398</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29872</v>
+        <v>29585</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0565210796033529</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03519351780742472</v>
+        <v>0.03372170239323424</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08837694983192917</v>
+        <v>0.08752776057028649</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -2764,19 +2764,19 @@
         <v>32336</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22829</v>
+        <v>22504</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45971</v>
+        <v>47323</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04272729644281075</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03016439279271831</v>
+        <v>0.02973545204493494</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06074333698414668</v>
+        <v>0.06252940535870335</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>405565</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>395931</v>
+        <v>394615</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>412209</v>
+        <v>411791</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9684056683810673</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9454003534938891</v>
+        <v>0.942258042274242</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9842687599786891</v>
+        <v>0.9832705019304562</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>287</v>
@@ -2814,19 +2814,19 @@
         <v>318906</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>308139</v>
+        <v>308426</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>326115</v>
+        <v>326613</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.943478920396647</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.911623050168071</v>
+        <v>0.9124722394297136</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9648064821925753</v>
+        <v>0.966278297606766</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>651</v>
@@ -2835,19 +2835,19 @@
         <v>724472</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>710837</v>
+        <v>709485</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>733979</v>
+        <v>734304</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9572727035571893</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9392566630158533</v>
+        <v>0.9374705946412967</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9698356072072817</v>
+        <v>0.970264547955065</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>42009</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30092</v>
+        <v>29852</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56240</v>
+        <v>55728</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0667430516629155</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04780897433961212</v>
+        <v>0.04742806483162327</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0893534417169021</v>
+        <v>0.08853895443671822</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -2960,19 +2960,19 @@
         <v>37927</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28354</v>
+        <v>27213</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51052</v>
+        <v>50106</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1458011935891729</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1090001827506203</v>
+        <v>0.104613887305109</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1962576103805181</v>
+        <v>0.1926206183443103</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>75</v>
@@ -2981,19 +2981,19 @@
         <v>79936</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62932</v>
+        <v>62331</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98633</v>
+        <v>98285</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0898620245554549</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07074638476377111</v>
+        <v>0.07007068423304888</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1108807113061128</v>
+        <v>0.1104893591505117</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>587406</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>573175</v>
+        <v>573687</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>599323</v>
+        <v>599563</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9332569483370845</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9106465582830978</v>
+        <v>0.9114610455632818</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9521910256603878</v>
+        <v>0.9525719351683766</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>207</v>
@@ -3031,19 +3031,19 @@
         <v>222202</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>209077</v>
+        <v>210023</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>231775</v>
+        <v>232916</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8541988064108271</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8037423896194819</v>
+        <v>0.80737938165569</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8909998172493797</v>
+        <v>0.895386112694891</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>760</v>
@@ -3052,19 +3052,19 @@
         <v>809608</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>790911</v>
+        <v>791259</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>826612</v>
+        <v>827213</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9101379754445451</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8891192886938872</v>
+        <v>0.8895106408494885</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.929253615236229</v>
+        <v>0.9299293157669511</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>54399</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40862</v>
+        <v>40852</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70987</v>
+        <v>72342</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04693582274034581</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03525577718124644</v>
+        <v>0.03524764464651982</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06124805923722153</v>
+        <v>0.06241705587876053</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -3177,19 +3177,19 @@
         <v>83441</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66573</v>
+        <v>65461</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>100548</v>
+        <v>102374</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1091132034465706</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08705486937094484</v>
+        <v>0.08560107526678391</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1314836510391149</v>
+        <v>0.1338706722171687</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>125</v>
@@ -3198,19 +3198,19 @@
         <v>137840</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>113994</v>
+        <v>113499</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>161185</v>
+        <v>163134</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07165259031730638</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05925654405419947</v>
+        <v>0.05899950240804648</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08378762015147882</v>
+        <v>0.08480060408817917</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1104610</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1088022</v>
+        <v>1086667</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1118147</v>
+        <v>1118157</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9530641772596542</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9387519407627785</v>
+        <v>0.9375829441212392</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9647442228187536</v>
+        <v>0.9647523553534801</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>633</v>
@@ -3248,19 +3248,19 @@
         <v>681281</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>664174</v>
+        <v>662348</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>698149</v>
+        <v>699261</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8908867965534294</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.868516348960885</v>
+        <v>0.866129327782831</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9129451306290547</v>
+        <v>0.9143989247332157</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1668</v>
@@ -3269,19 +3269,19 @@
         <v>1785891</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1762546</v>
+        <v>1760597</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1809737</v>
+        <v>1810232</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9283474096826936</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9162123798485213</v>
+        <v>0.9151993959118209</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9407434559458008</v>
+        <v>0.9410004975919536</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>17064</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10022</v>
+        <v>10336</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26581</v>
+        <v>25906</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03342046835880907</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01962767011019603</v>
+        <v>0.02024257824374426</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05205893896698077</v>
+        <v>0.05073592436638176</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>108</v>
@@ -3394,19 +3394,19 @@
         <v>113455</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>95548</v>
+        <v>93632</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>135707</v>
+        <v>134250</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1492350772878275</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1256809876066232</v>
+        <v>0.1231597663329993</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1785043757304178</v>
+        <v>0.1765879360663105</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>125</v>
@@ -3415,19 +3415,19 @@
         <v>130520</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>109291</v>
+        <v>109828</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>152528</v>
+        <v>152257</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1027033436386596</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08599885516646523</v>
+        <v>0.0864217144859107</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1200214161218779</v>
+        <v>0.1198076315079268</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>493532</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>484015</v>
+        <v>484690</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>500574</v>
+        <v>500260</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9665795316411909</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9479410610330192</v>
+        <v>0.9492640756336185</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9803723298898039</v>
+        <v>0.979757421756256</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>594</v>
@@ -3465,19 +3465,19 @@
         <v>646791</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>624539</v>
+        <v>625996</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>664698</v>
+        <v>666614</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8507649227121724</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8214956242695822</v>
+        <v>0.8234120639336895</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8743190123933766</v>
+        <v>0.8768402336670007</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1064</v>
@@ -3486,19 +3486,19 @@
         <v>1140323</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1118315</v>
+        <v>1118586</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1161552</v>
+        <v>1161015</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8972966563613404</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8799785838781211</v>
+        <v>0.8801923684920733</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9140011448335345</v>
+        <v>0.9135782855140894</v>
       </c>
     </row>
     <row r="18">
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6308</v>
+        <v>6162</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006867824625395341</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02363454408685742</v>
+        <v>0.02308940968481409</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>129</v>
@@ -3611,19 +3611,19 @@
         <v>136602</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>117280</v>
+        <v>115437</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>159127</v>
+        <v>159242</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1231364687765812</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.105719477241932</v>
+        <v>0.1040577456516463</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1434414319764157</v>
+        <v>0.1435451459954065</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>131</v>
@@ -3632,19 +3632,19 @@
         <v>138434</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>117273</v>
+        <v>117519</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>164588</v>
+        <v>161384</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1005894178000321</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08521283082249008</v>
+        <v>0.08539199757389546</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1195929339751726</v>
+        <v>0.117265000539651</v>
       </c>
     </row>
     <row r="20">
@@ -3661,7 +3661,7 @@
         <v>265049</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260574</v>
+        <v>260720</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>266882</v>
@@ -3670,7 +3670,7 @@
         <v>0.9931321753746046</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9763654559131418</v>
+        <v>0.9769105903151849</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3682,19 +3682,19 @@
         <v>972749</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>950224</v>
+        <v>950109</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>992071</v>
+        <v>993914</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8768635312234188</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8565585680235843</v>
+        <v>0.8564548540045935</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8942805227580679</v>
+        <v>0.8959422543483537</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1178</v>
@@ -3703,19 +3703,19 @@
         <v>1237799</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1211645</v>
+        <v>1214849</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1258960</v>
+        <v>1258714</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8994105821999679</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8804070660248269</v>
+        <v>0.8827349994603489</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9147871691775098</v>
+        <v>0.9146080024261045</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>140670</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>117359</v>
+        <v>117132</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>169647</v>
+        <v>167719</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04110854534155472</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03429628930596468</v>
+        <v>0.03423009592280062</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04957668823936104</v>
+        <v>0.04901321019281314</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>382</v>
@@ -3828,19 +3828,19 @@
         <v>405603</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>369004</v>
+        <v>369032</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>445677</v>
+        <v>445618</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1143538516661602</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1040350585207001</v>
+        <v>0.1040430877494719</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1256520051735308</v>
+        <v>0.1256354054597338</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>509</v>
@@ -3849,19 +3849,19 @@
         <v>546273</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>502704</v>
+        <v>504241</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>594308</v>
+        <v>599892</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07838812451170762</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07213615101235168</v>
+        <v>0.07235663931599527</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08528094300282898</v>
+        <v>0.08608221221644562</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3281240</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3252263</v>
+        <v>3254191</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3304551</v>
+        <v>3304778</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9588914546584453</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9504233117606389</v>
+        <v>0.9509867898071866</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9657037106940353</v>
+        <v>0.9657699040771991</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2906</v>
@@ -3899,19 +3899,19 @@
         <v>3141312</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3101238</v>
+        <v>3101297</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3177911</v>
+        <v>3177883</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8856461483338398</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8743479948264684</v>
+        <v>0.8743645945402667</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8959649414792997</v>
+        <v>0.8959569122505281</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5984</v>
@@ -3920,19 +3920,19 @@
         <v>6422552</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6374517</v>
+        <v>6368933</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6466121</v>
+        <v>6464584</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9216118754882924</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9147190569971709</v>
+        <v>0.9139177877835543</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9278638489876483</v>
+        <v>0.9276433606840047</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>10973</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5478</v>
+        <v>5655</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18417</v>
+        <v>19853</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02557356833968354</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01276619948287192</v>
+        <v>0.01317980425446577</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04292007261302018</v>
+        <v>0.04626829045376964</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -4287,19 +4287,19 @@
         <v>17036</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10222</v>
+        <v>10116</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28974</v>
+        <v>28500</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04908627553356167</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02945265801136747</v>
+        <v>0.02914786572612987</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08348510971869716</v>
+        <v>0.08211896466320179</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -4308,19 +4308,19 @@
         <v>28009</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18249</v>
+        <v>17723</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40656</v>
+        <v>40004</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03608729997867452</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02351255656460613</v>
+        <v>0.02283476754429272</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05238149175762891</v>
+        <v>0.05154150680666773</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>418119</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>410675</v>
+        <v>409239</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>423614</v>
+        <v>423437</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9744264316603165</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9570799273869802</v>
+        <v>0.9537317095462303</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9872338005171281</v>
+        <v>0.9868201957455341</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>317</v>
@@ -4358,19 +4358,19 @@
         <v>330019</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>318081</v>
+        <v>318555</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>336833</v>
+        <v>336939</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9509137244664383</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9165148902813038</v>
+        <v>0.9178810353367988</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9705473419886326</v>
+        <v>0.9708521342738703</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>703</v>
@@ -4379,19 +4379,19 @@
         <v>748138</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>735491</v>
+        <v>736143</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>757898</v>
+        <v>758424</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9639127000213255</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9476185082423714</v>
+        <v>0.9484584931933326</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.976487443435394</v>
+        <v>0.9771652324557075</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>8500</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3977</v>
+        <v>3789</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16324</v>
+        <v>15674</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02253273469139088</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01054352904371683</v>
+        <v>0.01004509676224943</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04327381976088193</v>
+        <v>0.0415494698230446</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -4504,19 +4504,19 @@
         <v>16054</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9504</v>
+        <v>9616</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27123</v>
+        <v>27319</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04312471137474351</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02553046654378835</v>
+        <v>0.02583112693301397</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07285830097818295</v>
+        <v>0.07338479989125413</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -4525,19 +4525,19 @@
         <v>24554</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16131</v>
+        <v>15555</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37719</v>
+        <v>37366</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0327606730090784</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02152228340141927</v>
+        <v>0.02075340710191693</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05032571781796064</v>
+        <v>0.04985512467816256</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>368727</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>360903</v>
+        <v>361553</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>373250</v>
+        <v>373438</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9774672653086092</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9567261802391182</v>
+        <v>0.9584505301769553</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9894564709562833</v>
+        <v>0.9899549032377503</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>338</v>
@@ -4575,19 +4575,19 @@
         <v>356219</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>345150</v>
+        <v>344954</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>362769</v>
+        <v>362657</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9568752886252565</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9271416990218171</v>
+        <v>0.926615200108746</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9744695334562119</v>
+        <v>0.9741688730669862</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>684</v>
@@ -4596,19 +4596,19 @@
         <v>724946</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>711781</v>
+        <v>712134</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>733369</v>
+        <v>733945</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9672393269909216</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9496742821820396</v>
+        <v>0.9501448753218384</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9784777165985808</v>
+        <v>0.9792465928980834</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>20969</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13544</v>
+        <v>12993</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31800</v>
+        <v>31653</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04017795516106089</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02595043014316737</v>
+        <v>0.02489411034862724</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06092887504615622</v>
+        <v>0.06064875144275038</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -4721,19 +4721,19 @@
         <v>22613</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13961</v>
+        <v>14750</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33162</v>
+        <v>33147</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1361210750758343</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08403761102461808</v>
+        <v>0.08878857406241908</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1996204139749985</v>
+        <v>0.199535071176667</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -4742,19 +4742,19 @@
         <v>43582</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31746</v>
+        <v>31260</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57806</v>
+        <v>58217</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0633429184098359</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04614039345727965</v>
+        <v>0.04543385922803368</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08401660298373044</v>
+        <v>0.08461364301245568</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>500945</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>490114</v>
+        <v>490261</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>508370</v>
+        <v>508921</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9598220448389391</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9390711249538439</v>
+        <v>0.9393512485572498</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9740495698568327</v>
+        <v>0.9751058896513729</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -4792,19 +4792,19 @@
         <v>143510</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>132961</v>
+        <v>132976</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>152162</v>
+        <v>151373</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8638789249241657</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8003795860250017</v>
+        <v>0.800464928823333</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.915962388975382</v>
+        <v>0.9112114259375811</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>616</v>
@@ -4813,19 +4813,19 @@
         <v>644454</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>630230</v>
+        <v>629819</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>656290</v>
+        <v>656776</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9366570815901641</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9159833970162697</v>
+        <v>0.9153863569875446</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9538596065427205</v>
+        <v>0.9545661407719668</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>40132</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29504</v>
+        <v>29149</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55691</v>
+        <v>55762</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03490842769216079</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02566367407008339</v>
+        <v>0.02535481440163484</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04844197758376334</v>
+        <v>0.0485042297388413</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -4938,19 +4938,19 @@
         <v>71121</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56377</v>
+        <v>55949</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89321</v>
+        <v>91330</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08611524297389286</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06826374987677114</v>
+        <v>0.06774476419067203</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1081525254796265</v>
+        <v>0.1105859482959013</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>105</v>
@@ -4959,19 +4959,19 @@
         <v>111253</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90432</v>
+        <v>91428</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>133962</v>
+        <v>132699</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05631575136481517</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04577651808043252</v>
+        <v>0.04628049979146534</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06781131685256984</v>
+        <v>0.06717175648284397</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1109506</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1093947</v>
+        <v>1093876</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1120134</v>
+        <v>1120489</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9650915723078393</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.951558022416236</v>
+        <v>0.9514957702611587</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9743363259299165</v>
+        <v>0.9746451855983661</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>732</v>
@@ -5009,19 +5009,19 @@
         <v>754755</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>736555</v>
+        <v>734546</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>769499</v>
+        <v>769927</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9138847570261072</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8918474745203734</v>
+        <v>0.8894140517040986</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9317362501232287</v>
+        <v>0.9322552358093279</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1796</v>
@@ -5030,19 +5030,19 @@
         <v>1864261</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1841552</v>
+        <v>1842815</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1885082</v>
+        <v>1884086</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9436842486351849</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9321886831474301</v>
+        <v>0.9328282435171561</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9542234819195675</v>
+        <v>0.9537195002085346</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>25974</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17935</v>
+        <v>17348</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38118</v>
+        <v>38388</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04184515493150386</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02889486423406259</v>
+        <v>0.02794948713978348</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0614114335177135</v>
+        <v>0.06184626207425999</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>103</v>
@@ -5155,19 +5155,19 @@
         <v>111395</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>91696</v>
+        <v>92872</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132087</v>
+        <v>132075</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1508924787771637</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1242080172322046</v>
+        <v>0.1258010586227612</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1789206946794849</v>
+        <v>0.1789037300897383</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>129</v>
@@ -5176,19 +5176,19 @@
         <v>137369</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>116846</v>
+        <v>116409</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>161335</v>
+        <v>163324</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1010846751958593</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08598250697675922</v>
+        <v>0.08566133620092772</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1187202947667045</v>
+        <v>0.1201843237149877</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>594732</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>582588</v>
+        <v>582318</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>602771</v>
+        <v>603358</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9581548450684961</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9385885664822866</v>
+        <v>0.9381537379257395</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9711051357659375</v>
+        <v>0.9720505128602159</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>596</v>
@@ -5226,19 +5226,19 @@
         <v>626849</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>606157</v>
+        <v>606169</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>646548</v>
+        <v>645372</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8491075212228364</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.821079305320515</v>
+        <v>0.8210962699102616</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8757919827677954</v>
+        <v>0.8741989413772389</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1167</v>
@@ -5247,19 +5247,19 @@
         <v>1221581</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1197615</v>
+        <v>1195626</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1242104</v>
+        <v>1242541</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8989153248041407</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8812797052332955</v>
+        <v>0.8798156762850123</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9140174930232408</v>
+        <v>0.9143386637990722</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>4021</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1185</v>
+        <v>956</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9923</v>
+        <v>9641</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01400411003860132</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004126391378033106</v>
+        <v>0.003330334390120353</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03455664074053492</v>
+        <v>0.03357682735395395</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>111</v>
@@ -5372,19 +5372,19 @@
         <v>122977</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>101628</v>
+        <v>102468</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>146358</v>
+        <v>148546</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1136542906373824</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0939236867907659</v>
+        <v>0.09470029431213828</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1352630097829196</v>
+        <v>0.1372855981851327</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>115</v>
@@ -5393,19 +5393,19 @@
         <v>126998</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>105639</v>
+        <v>106163</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>150360</v>
+        <v>150750</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09275544987369158</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07715552323513837</v>
+        <v>0.07753789814761028</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1098184167338548</v>
+        <v>0.1101032423236399</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>283124</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>277222</v>
+        <v>277504</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>285960</v>
+        <v>286189</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9859958899613986</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9654433592594648</v>
+        <v>0.9664231726460459</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9958736086219669</v>
+        <v>0.9966696656098797</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>881</v>
@@ -5443,19 +5443,19 @@
         <v>959048</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>935667</v>
+        <v>933479</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>980397</v>
+        <v>979557</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8863457093626176</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8647369902170804</v>
+        <v>0.8627144018148672</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9060763132092341</v>
+        <v>0.9052997056878616</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1149</v>
@@ -5464,19 +5464,19 @@
         <v>1242172</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1218810</v>
+        <v>1218420</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1263531</v>
+        <v>1263007</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9072445501263084</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8901815832661453</v>
+        <v>0.8898967576763602</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9228444767648616</v>
+        <v>0.9224621018523897</v>
       </c>
     </row>
     <row r="21">
@@ -5568,7 +5568,7 @@
         <v>110570</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>91884</v>
+        <v>91441</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>133265</v>
@@ -5577,10 +5577,10 @@
         <v>0.0326576145264622</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02713879207577579</v>
+        <v>0.0270078790380445</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03936092845637699</v>
+        <v>0.03936099185262312</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>328</v>
@@ -5589,19 +5589,19 @@
         <v>361195</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>326977</v>
+        <v>326837</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>403417</v>
+        <v>397840</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1022753985727351</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09258607017939348</v>
+        <v>0.09254661230454496</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1142306872107204</v>
+        <v>0.1126517486544349</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>435</v>
@@ -5610,19 +5610,19 @@
         <v>471765</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>433386</v>
+        <v>429275</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>517933</v>
+        <v>513234</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06820056298664694</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06265236239173323</v>
+        <v>0.06205795842934224</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07487488527462877</v>
+        <v>0.07419546128761348</v>
       </c>
     </row>
     <row r="23">
@@ -5642,16 +5642,16 @@
         <v>3252457</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3293838</v>
+        <v>3294281</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9673423854735378</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9606390715436228</v>
+        <v>0.9606390081473768</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.972861207924224</v>
+        <v>0.9729921209619555</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2998</v>
@@ -5660,19 +5660,19 @@
         <v>3170401</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3128179</v>
+        <v>3133756</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3204619</v>
+        <v>3204759</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8977246014272648</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8857693127892797</v>
+        <v>0.8873482513455653</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9074139298206065</v>
+        <v>0.9074533876954551</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6115</v>
@@ -5681,19 +5681,19 @@
         <v>6445553</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6399385</v>
+        <v>6404084</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6483932</v>
+        <v>6488043</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9317994370133531</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9251251147253712</v>
+        <v>0.9258045387123865</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9373476376082667</v>
+        <v>0.937942041570658</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>23736</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15642</v>
+        <v>15563</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35306</v>
+        <v>34937</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04310861372192076</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02840738320551648</v>
+        <v>0.02826412655936881</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06412009272465372</v>
+        <v>0.06345083330094653</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>56</v>
@@ -6048,19 +6048,19 @@
         <v>39646</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29676</v>
+        <v>31003</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51769</v>
+        <v>51553</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08117348770506264</v>
+        <v>0.08117348770506265</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06076065592348551</v>
+        <v>0.06347717897650131</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.105995151413534</v>
+        <v>0.1055524267538519</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>81</v>
@@ -6069,19 +6069,19 @@
         <v>63382</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48822</v>
+        <v>50661</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78606</v>
+        <v>79598</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0610015657960298</v>
+        <v>0.06100156579602979</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04698815142318994</v>
+        <v>0.04875765491867159</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07565343205677921</v>
+        <v>0.07660837527889686</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>526882</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>515312</v>
+        <v>515681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>534976</v>
+        <v>535055</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9568913862780792</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9358799072753462</v>
+        <v>0.9365491666990534</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9715926167944835</v>
+        <v>0.9717358734406312</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>630</v>
@@ -6119,19 +6119,19 @@
         <v>448765</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>436642</v>
+        <v>436858</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>458735</v>
+        <v>457408</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9188265122949375</v>
+        <v>0.9188265122949374</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8940048485864663</v>
+        <v>0.8944475732461483</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9392393440765148</v>
+        <v>0.9365228210234986</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1159</v>
@@ -6140,19 +6140,19 @@
         <v>975647</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>960423</v>
+        <v>959431</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>990207</v>
+        <v>988368</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9389984342039704</v>
+        <v>0.9389984342039702</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9243465679432209</v>
+        <v>0.9233916247211028</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9530118485768099</v>
+        <v>0.9512423450813281</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>28446</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19406</v>
+        <v>19012</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40849</v>
+        <v>40324</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05886833527491388</v>
+        <v>0.05886833527491387</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04015963031180867</v>
+        <v>0.03934494531452124</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08453719480991247</v>
+        <v>0.08344900578294163</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -6265,19 +6265,19 @@
         <v>41994</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32291</v>
+        <v>32294</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53902</v>
+        <v>53762</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09924414076792856</v>
+        <v>0.09924414076792858</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07631164892115384</v>
+        <v>0.07632001920683654</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1273850645988079</v>
+        <v>0.1270537106454707</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -6286,19 +6286,19 @@
         <v>70440</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55832</v>
+        <v>57016</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>85315</v>
+        <v>84743</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.07771827106623168</v>
+        <v>0.07771827106623169</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06160089775390433</v>
+        <v>0.06290743616119006</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09412977714515021</v>
+        <v>0.09349868649234419</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>454766</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>442363</v>
+        <v>442888</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>463806</v>
+        <v>464200</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9411316647250861</v>
+        <v>0.941131664725086</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9154628051900876</v>
+        <v>0.9165509942170583</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9598403696881913</v>
+        <v>0.9606550546854786</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>532</v>
@@ -6336,19 +6336,19 @@
         <v>381149</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>369241</v>
+        <v>369381</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>390852</v>
+        <v>390849</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9007558592320714</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8726149354011922</v>
+        <v>0.8729462893545294</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9236883510788462</v>
+        <v>0.9236799807931636</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>984</v>
@@ -6357,19 +6357,19 @@
         <v>835915</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>821040</v>
+        <v>821612</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>850523</v>
+        <v>849339</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9222817289337684</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9058702228548497</v>
+        <v>0.9065013135076555</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9383991022460958</v>
+        <v>0.93709256383881</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>34272</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24349</v>
+        <v>24328</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47623</v>
+        <v>48427</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07267050833113828</v>
+        <v>0.07267050833113826</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05162996105224053</v>
+        <v>0.05158477653902792</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1009787992442128</v>
+        <v>0.1026838079637069</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -6482,19 +6482,19 @@
         <v>24557</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18203</v>
+        <v>18007</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32479</v>
+        <v>32590</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.130971881038281</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09708596182280767</v>
+        <v>0.09603976484698989</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1732265296714403</v>
+        <v>0.1738170275889681</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>78</v>
@@ -6503,19 +6503,19 @@
         <v>58829</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47388</v>
+        <v>45795</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72610</v>
+        <v>73426</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0892555482739473</v>
+        <v>0.08925554827394729</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07189759547562291</v>
+        <v>0.06948073658323839</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1101635658065646</v>
+        <v>0.1114021869149641</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>437340</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>423989</v>
+        <v>423185</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>447263</v>
+        <v>447284</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9273294916688618</v>
+        <v>0.9273294916688617</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8990212007557873</v>
+        <v>0.8973161920362932</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9483700389477595</v>
+        <v>0.9484152234609721</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>247</v>
@@ -6553,19 +6553,19 @@
         <v>162940</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>155018</v>
+        <v>154907</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>169294</v>
+        <v>169490</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8690281189617191</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8267734703285596</v>
+        <v>0.8261829724110314</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9029140381771923</v>
+        <v>0.9039602351530099</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>699</v>
@@ -6574,19 +6574,19 @@
         <v>600280</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>586499</v>
+        <v>585683</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>611721</v>
+        <v>613314</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9107444517260528</v>
+        <v>0.9107444517260527</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8898364341934358</v>
+        <v>0.888597813085036</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9281024045243772</v>
+        <v>0.9305192634167617</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>68332</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53784</v>
+        <v>54500</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84366</v>
+        <v>86241</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06037227639207454</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04751863710601933</v>
+        <v>0.04815124604554287</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0745389836756056</v>
+        <v>0.07619528339618206</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>149</v>
@@ -6699,19 +6699,19 @@
         <v>100233</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>84650</v>
+        <v>83935</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>116478</v>
+        <v>117913</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1163864884832377</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09829188069093971</v>
+        <v>0.09746176975024524</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1352487073793346</v>
+        <v>0.1369156183216491</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>223</v>
@@ -6720,19 +6720,19 @@
         <v>168565</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>147096</v>
+        <v>147559</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>191300</v>
+        <v>193549</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08457637431115002</v>
+        <v>0.08457637431115005</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07380455947865279</v>
+        <v>0.07403651821229382</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09598325188011762</v>
+        <v>0.09711197950668113</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1063511</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1047477</v>
+        <v>1045602</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1078059</v>
+        <v>1077343</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9396277236079255</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9254610163243944</v>
+        <v>0.9238047166038178</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9524813628939804</v>
+        <v>0.951848753954457</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1081</v>
@@ -6770,19 +6770,19 @@
         <v>760978</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>744733</v>
+        <v>743298</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>776561</v>
+        <v>777276</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8836135115167624</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8647512926206654</v>
+        <v>0.863084381678351</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9017081193090603</v>
+        <v>0.9025382302497545</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2125</v>
@@ -6791,19 +6791,19 @@
         <v>1824489</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1801754</v>
+        <v>1799505</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1845958</v>
+        <v>1845495</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9154236256888498</v>
+        <v>0.9154236256888499</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9040167481198823</v>
+        <v>0.9028880204933197</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9261954405213472</v>
+        <v>0.9259634817877063</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>38503</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27816</v>
+        <v>27923</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52110</v>
+        <v>51850</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06779132486895685</v>
+        <v>0.06779132486895684</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04897478971645782</v>
+        <v>0.04916245031667649</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09174863737920001</v>
+        <v>0.09129159729671309</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>228</v>
@@ -6916,19 +6916,19 @@
         <v>138615</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>123449</v>
+        <v>121547</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>158205</v>
+        <v>155582</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1668346626198101</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1485817408013388</v>
+        <v>0.1462919739341923</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1904133065663921</v>
+        <v>0.1872563015413356</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>269</v>
@@ -6937,19 +6937,19 @@
         <v>177118</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>157610</v>
+        <v>156092</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>202985</v>
+        <v>201624</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1266198623955474</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1126741416255529</v>
+        <v>0.1115885251548879</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1451118597557547</v>
+        <v>0.1441390286770458</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>529461</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>515854</v>
+        <v>516114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>540148</v>
+        <v>540041</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9322086751310432</v>
+        <v>0.9322086751310431</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9082513626208002</v>
+        <v>0.9087084027032869</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9510252102835423</v>
+        <v>0.9508375496833235</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1062</v>
@@ -6987,19 +6987,19 @@
         <v>692235</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>672645</v>
+        <v>675268</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>707401</v>
+        <v>709303</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8331653373801899</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8095866934336077</v>
+        <v>0.8127436984586645</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8514182591986612</v>
+        <v>0.8537080260658082</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1568</v>
@@ -7008,19 +7008,19 @@
         <v>1221696</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1195829</v>
+        <v>1197190</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1241204</v>
+        <v>1242722</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8733801376044527</v>
+        <v>0.8733801376044525</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8548881402442453</v>
+        <v>0.8558609713229544</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8873258583744471</v>
+        <v>0.8884114748451122</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>15189</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7856</v>
+        <v>7072</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30631</v>
+        <v>27368</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06402730703729022</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03311572473616958</v>
+        <v>0.02981284495241681</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1291192528910518</v>
+        <v>0.1153677790815807</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>150</v>
@@ -7133,19 +7133,19 @@
         <v>102985</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>85934</v>
+        <v>86368</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>120827</v>
+        <v>122127</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1219793329346276</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1017831503489009</v>
+        <v>0.1022971161226084</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1431126526453924</v>
+        <v>0.1446525114705652</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>161</v>
@@ -7154,19 +7154,19 @@
         <v>118174</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>100497</v>
+        <v>98878</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>139596</v>
+        <v>138388</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1092676199921016</v>
+        <v>0.1092676199921017</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09292305098443067</v>
+        <v>0.09142635402794785</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1290750923869957</v>
+        <v>0.1279582418138047</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>222039</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>206597</v>
+        <v>209860</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>229372</v>
+        <v>230156</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9359726929627098</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8708807471089482</v>
+        <v>0.8846322209184193</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9668842752638304</v>
+        <v>0.9701871550475832</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1009</v>
@@ -7204,19 +7204,19 @@
         <v>741296</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>723454</v>
+        <v>722154</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>758347</v>
+        <v>757913</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8780206670653723</v>
+        <v>0.8780206670653725</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8568873473546077</v>
+        <v>0.8553474885294347</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.898216849651099</v>
+        <v>0.8977028838773916</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1110</v>
@@ -7225,19 +7225,19 @@
         <v>963335</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>941913</v>
+        <v>943121</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>981012</v>
+        <v>982631</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8907323800078984</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8709249076130046</v>
+        <v>0.8720417581861952</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9070769490155698</v>
+        <v>0.9085736459720521</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>208479</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>179281</v>
+        <v>178912</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>239382</v>
+        <v>239191</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06056063028761428</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05207900412907332</v>
+        <v>0.05197180135128476</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06953770101726761</v>
+        <v>0.0694821850700864</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>683</v>
@@ -7350,19 +7350,19 @@
         <v>448030</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>417104</v>
+        <v>418003</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>481817</v>
+        <v>485789</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1232411668793058</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1147342198502468</v>
+        <v>0.1149816350597946</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1325350603376863</v>
+        <v>0.1336276475821478</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>899</v>
@@ -7371,19 +7371,19 @@
         <v>656509</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>616888</v>
+        <v>613761</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>703155</v>
+        <v>705728</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09275512125316072</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08715724668060298</v>
+        <v>0.08671555662384771</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09934557474595555</v>
+        <v>0.09970904766816184</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3233997</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3203094</v>
+        <v>3203285</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3263195</v>
+        <v>3263564</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9394393697123858</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9304622989827328</v>
+        <v>0.9305178149299137</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9479209958709267</v>
+        <v>0.9480281986487151</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4561</v>
@@ -7421,19 +7421,19 @@
         <v>3187363</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3153576</v>
+        <v>3149604</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3218289</v>
+        <v>3217390</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8767588331206944</v>
+        <v>0.8767588331206941</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8674649396623139</v>
+        <v>0.8663723524178517</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8852657801497538</v>
+        <v>0.8850183649402049</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7645</v>
@@ -7442,19 +7442,19 @@
         <v>6421360</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6374714</v>
+        <v>6372141</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6460981</v>
+        <v>6464108</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9072448787468392</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9006544252540444</v>
+        <v>0.900290952331838</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.912842753319397</v>
+        <v>0.9132844433761522</v>
       </c>
     </row>
     <row r="24">
